--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA67EA1B-4DAC-4974-85DB-76818727E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903CFD2E-B814-4A38-AA00-4FE51071DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,24 +25,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Auto posto comandatuba rede domingos</t>
-  </si>
-  <si>
-    <t>venda cancelada nao tornou os abastecimentos</t>
-  </si>
-  <si>
-    <t>reativar abastecimento</t>
-  </si>
-  <si>
     <t>Descricao</t>
   </si>
   <si>
     <t>Resolucao</t>
+  </si>
+  <si>
+    <t>teste chamado1</t>
+  </si>
+  <si>
+    <t>problema 1</t>
+  </si>
+  <si>
+    <t>resolucao 1</t>
+  </si>
+  <si>
+    <t>teste chamado2</t>
+  </si>
+  <si>
+    <t>problema 2</t>
+  </si>
+  <si>
+    <t>resolucao 2</t>
+  </si>
+  <si>
+    <t>teste chamado3</t>
+  </si>
+  <si>
+    <t>problema 3</t>
+  </si>
+  <si>
+    <t>resolucao 3</t>
+  </si>
+  <si>
+    <t>teste chamado4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>resolucao 4</t>
   </si>
 </sst>
 </file>
@@ -394,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,21 +439,54 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903CFD2E-B814-4A38-AA00-4FE51071DCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F22FAF-93C4-4ED1-B6AB-8AC05DE44A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nome</t>
   </si>
@@ -66,10 +66,37 @@
     <t>teste chamado4</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>resolucao 4</t>
+  </si>
+  <si>
+    <t>problema 4</t>
+  </si>
+  <si>
+    <t>teste chamado5</t>
+  </si>
+  <si>
+    <t>problema 5</t>
+  </si>
+  <si>
+    <t>resolucao 5</t>
+  </si>
+  <si>
+    <t>teste chamado6</t>
+  </si>
+  <si>
+    <t>problema 6</t>
+  </si>
+  <si>
+    <t>resolucao 6</t>
+  </si>
+  <si>
+    <t>teste chamado7</t>
+  </si>
+  <si>
+    <t>problema 7</t>
+  </si>
+  <si>
+    <t>resolucao 7</t>
   </si>
 </sst>
 </file>
@@ -421,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +510,43 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F22FAF-93C4-4ED1-B6AB-8AC05DE44A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95974EA1-967C-4BFF-B0F0-24D7C3A69AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Nome</t>
   </si>
@@ -36,61 +36,40 @@
     <t>Resolucao</t>
   </si>
   <si>
-    <t>teste chamado1</t>
-  </si>
-  <si>
     <t>problema 1</t>
   </si>
   <si>
     <t>resolucao 1</t>
   </si>
   <si>
-    <t>teste chamado2</t>
-  </si>
-  <si>
     <t>problema 2</t>
   </si>
   <si>
     <t>resolucao 2</t>
   </si>
   <si>
-    <t>teste chamado3</t>
-  </si>
-  <si>
     <t>problema 3</t>
   </si>
   <si>
     <t>resolucao 3</t>
   </si>
   <si>
-    <t>teste chamado4</t>
-  </si>
-  <si>
     <t>resolucao 4</t>
   </si>
   <si>
     <t>problema 4</t>
   </si>
   <si>
-    <t>teste chamado5</t>
-  </si>
-  <si>
     <t>problema 5</t>
   </si>
   <si>
     <t>resolucao 5</t>
   </si>
   <si>
-    <t>teste chamado6</t>
-  </si>
-  <si>
     <t>problema 6</t>
   </si>
   <si>
     <t>resolucao 6</t>
-  </si>
-  <si>
-    <t>teste chamado7</t>
   </si>
   <si>
     <t>problema 7</t>
@@ -448,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,80 +452,168 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95974EA1-967C-4BFF-B0F0-24D7C3A69AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0B588-7842-4888-AAFE-82C156094079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Nome</t>
   </si>
@@ -76,16 +76,115 @@
   </si>
   <si>
     <t>resolucao 7</t>
+  </si>
+  <si>
+    <t>nome 1</t>
+  </si>
+  <si>
+    <t>nome 2</t>
+  </si>
+  <si>
+    <t>nome 3</t>
+  </si>
+  <si>
+    <t>nome 4</t>
+  </si>
+  <si>
+    <t>nome 5</t>
+  </si>
+  <si>
+    <t>nome 6</t>
+  </si>
+  <si>
+    <t>nome 7</t>
+  </si>
+  <si>
+    <t>nome 8</t>
+  </si>
+  <si>
+    <t>nome 9</t>
+  </si>
+  <si>
+    <t>nome 10</t>
+  </si>
+  <si>
+    <t>nome 11</t>
+  </si>
+  <si>
+    <t>nome 12</t>
+  </si>
+  <si>
+    <t>nome 13</t>
+  </si>
+  <si>
+    <t>nome 14</t>
+  </si>
+  <si>
+    <t>nome 15</t>
+  </si>
+  <si>
+    <t>problema 8</t>
+  </si>
+  <si>
+    <t>problema 9</t>
+  </si>
+  <si>
+    <t>problema 10</t>
+  </si>
+  <si>
+    <t>problema 11</t>
+  </si>
+  <si>
+    <t>problema 12</t>
+  </si>
+  <si>
+    <t>problema 13</t>
+  </si>
+  <si>
+    <t>problema 14</t>
+  </si>
+  <si>
+    <t>problema 15</t>
+  </si>
+  <si>
+    <t>resolucao 8</t>
+  </si>
+  <si>
+    <t>resolucao 9</t>
+  </si>
+  <si>
+    <t>resolucao 10</t>
+  </si>
+  <si>
+    <t>resolucao 11</t>
+  </si>
+  <si>
+    <t>resolucao 12</t>
+  </si>
+  <si>
+    <t>resolucao 13</t>
+  </si>
+  <si>
+    <t>resolucao 14</t>
+  </si>
+  <si>
+    <t>resolucao 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -430,7 +529,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,8 +551,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -463,8 +562,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -474,8 +573,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -485,8 +584,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -496,8 +595,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -507,8 +606,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -518,8 +617,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -529,94 +628,95 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0B588-7842-4888-AAFE-82C156094079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9659E5-1FAC-47A4-B63A-259CC4FFA805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Nome</t>
   </si>
@@ -36,139 +36,142 @@
     <t>Resolucao</t>
   </si>
   <si>
-    <t>problema 1</t>
-  </si>
-  <si>
-    <t>resolucao 1</t>
-  </si>
-  <si>
-    <t>problema 2</t>
-  </si>
-  <si>
-    <t>resolucao 2</t>
-  </si>
-  <si>
-    <t>problema 3</t>
-  </si>
-  <si>
-    <t>resolucao 3</t>
-  </si>
-  <si>
-    <t>resolucao 4</t>
-  </si>
-  <si>
-    <t>problema 4</t>
-  </si>
-  <si>
-    <t>problema 5</t>
-  </si>
-  <si>
-    <t>resolucao 5</t>
-  </si>
-  <si>
-    <t>problema 6</t>
-  </si>
-  <si>
-    <t>resolucao 6</t>
-  </si>
-  <si>
-    <t>problema 7</t>
-  </si>
-  <si>
-    <t>resolucao 7</t>
-  </si>
-  <si>
-    <t>nome 1</t>
-  </si>
-  <si>
-    <t>nome 2</t>
-  </si>
-  <si>
-    <t>nome 3</t>
-  </si>
-  <si>
-    <t>nome 4</t>
-  </si>
-  <si>
-    <t>nome 5</t>
-  </si>
-  <si>
-    <t>nome 6</t>
-  </si>
-  <si>
-    <t>nome 7</t>
-  </si>
-  <si>
-    <t>nome 8</t>
-  </si>
-  <si>
-    <t>nome 9</t>
-  </si>
-  <si>
-    <t>nome 10</t>
-  </si>
-  <si>
-    <t>nome 11</t>
-  </si>
-  <si>
-    <t>nome 12</t>
-  </si>
-  <si>
-    <t>nome 13</t>
-  </si>
-  <si>
-    <t>nome 14</t>
-  </si>
-  <si>
-    <t>nome 15</t>
-  </si>
-  <si>
-    <t>problema 8</t>
-  </si>
-  <si>
-    <t>problema 9</t>
-  </si>
-  <si>
-    <t>problema 10</t>
-  </si>
-  <si>
-    <t>problema 11</t>
-  </si>
-  <si>
-    <t>problema 12</t>
-  </si>
-  <si>
-    <t>problema 13</t>
-  </si>
-  <si>
-    <t>problema 14</t>
-  </si>
-  <si>
-    <t>problema 15</t>
-  </si>
-  <si>
-    <t>resolucao 8</t>
-  </si>
-  <si>
-    <t>resolucao 9</t>
-  </si>
-  <si>
-    <t>resolucao 10</t>
-  </si>
-  <si>
-    <t>resolucao 11</t>
-  </si>
-  <si>
-    <t>resolucao 12</t>
-  </si>
-  <si>
-    <t>resolucao 13</t>
-  </si>
-  <si>
-    <t>resolucao 14</t>
-  </si>
-  <si>
-    <t>resolucao 15</t>
+    <t>posto taquarandi</t>
+  </si>
+  <si>
+    <t>cupons em contingencia</t>
+  </si>
+  <si>
+    <t>expliquei que é a sefaz fora do ar</t>
+  </si>
+  <si>
+    <t>posto henrique</t>
+  </si>
+  <si>
+    <t>automacaoo sem comunicar</t>
+  </si>
+  <si>
+    <t>automacao sem comunicar</t>
+  </si>
+  <si>
+    <t>rio do bem</t>
+  </si>
+  <si>
+    <t>bomba repedindo informacao</t>
+  </si>
+  <si>
+    <t>posto jf cavalcantri</t>
+  </si>
+  <si>
+    <t>duvida sobre contingencia</t>
+  </si>
+  <si>
+    <t>precisa ser visto com mecanico ou junior</t>
+  </si>
+  <si>
+    <t>posto jp</t>
+  </si>
+  <si>
+    <t>redinha</t>
+  </si>
+  <si>
+    <t>concentrador fechado</t>
+  </si>
+  <si>
+    <t>abastecimentos sem cair</t>
+  </si>
+  <si>
+    <t>ipiranguinha</t>
+  </si>
+  <si>
+    <t>abastecimento sumiu</t>
+  </si>
+  <si>
+    <t>cupom autorizado na gpos numero 3973</t>
+  </si>
+  <si>
+    <t>auto posto boa vista</t>
+  </si>
+  <si>
+    <t>abastecimento sem chegar</t>
+  </si>
+  <si>
+    <t>posto dantas</t>
+  </si>
+  <si>
+    <t>venda nao sincronizada</t>
+  </si>
+  <si>
+    <t>venda cancelada sem parceiro id, frota id e dependente id</t>
+  </si>
+  <si>
+    <t>posto central</t>
+  </si>
+  <si>
+    <t>abastecimento sem constar nas senhas</t>
+  </si>
+  <si>
+    <t>senha de mayara</t>
+  </si>
+  <si>
+    <t>jaguaribara 1</t>
+  </si>
+  <si>
+    <t>bug mfe cancelar venda e nao voltar o abastecimento</t>
+  </si>
+  <si>
+    <t>parnamirim</t>
+  </si>
+  <si>
+    <t>abastecimentos nao voltaram pra tela pos cancelamento gpos</t>
+  </si>
+  <si>
+    <t>nao localizei as vendas</t>
+  </si>
+  <si>
+    <t>padre cicero</t>
+  </si>
+  <si>
+    <t>domingos escada 1</t>
+  </si>
+  <si>
+    <t>vendas em contingencia</t>
+  </si>
+  <si>
+    <t>comandatuba</t>
+  </si>
+  <si>
+    <t>diferenças positivas</t>
+  </si>
+  <si>
+    <t>passei que nao impedem o fechamento</t>
+  </si>
+  <si>
+    <t>posto santa rita</t>
+  </si>
+  <si>
+    <t>domingos 406</t>
+  </si>
+  <si>
+    <t>abastecimentos sem constar no pdv</t>
+  </si>
+  <si>
+    <t>já baixados com coo botei status F</t>
+  </si>
+  <si>
+    <t>posto jan</t>
+  </si>
+  <si>
+    <t>venda cancelada sem parceiro id, frota id, dependente id e sem usuario id</t>
+  </si>
+  <si>
+    <t>posto atalaia</t>
+  </si>
+  <si>
+    <t>mandacaru 1</t>
+  </si>
+  <si>
+    <t>felicidade 2</t>
   </si>
 </sst>
 </file>
@@ -526,17 +529,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,101 +555,101 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,65 +657,142 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9659E5-1FAC-47A4-B63A-259CC4FFA805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCF635-4BAF-48FC-9F2A-1388EC69E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Nome</t>
   </si>
@@ -36,37 +36,10 @@
     <t>Resolucao</t>
   </si>
   <si>
-    <t>posto taquarandi</t>
-  </si>
-  <si>
     <t>cupons em contingencia</t>
   </si>
   <si>
     <t>expliquei que é a sefaz fora do ar</t>
-  </si>
-  <si>
-    <t>posto henrique</t>
-  </si>
-  <si>
-    <t>automacaoo sem comunicar</t>
-  </si>
-  <si>
-    <t>automacao sem comunicar</t>
-  </si>
-  <si>
-    <t>rio do bem</t>
-  </si>
-  <si>
-    <t>bomba repedindo informacao</t>
-  </si>
-  <si>
-    <t>posto jf cavalcantri</t>
-  </si>
-  <si>
-    <t>duvida sobre contingencia</t>
-  </si>
-  <si>
-    <t>precisa ser visto com mecanico ou junior</t>
   </si>
   <si>
     <t>posto jp</t>
@@ -529,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,13 +528,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,10 +542,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,18 +556,18 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,54 +575,54 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,18 +630,18 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
@@ -679,21 +652,21 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +674,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -712,87 +685,43 @@
         <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFCF635-4BAF-48FC-9F2A-1388EC69E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18470FE9-FD7F-4E94-879E-63B089AE6B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nome</t>
   </si>
@@ -34,117 +34,6 @@
   </si>
   <si>
     <t>Resolucao</t>
-  </si>
-  <si>
-    <t>cupons em contingencia</t>
-  </si>
-  <si>
-    <t>expliquei que é a sefaz fora do ar</t>
-  </si>
-  <si>
-    <t>posto jp</t>
-  </si>
-  <si>
-    <t>redinha</t>
-  </si>
-  <si>
-    <t>concentrador fechado</t>
-  </si>
-  <si>
-    <t>abastecimentos sem cair</t>
-  </si>
-  <si>
-    <t>ipiranguinha</t>
-  </si>
-  <si>
-    <t>abastecimento sumiu</t>
-  </si>
-  <si>
-    <t>cupom autorizado na gpos numero 3973</t>
-  </si>
-  <si>
-    <t>auto posto boa vista</t>
-  </si>
-  <si>
-    <t>abastecimento sem chegar</t>
-  </si>
-  <si>
-    <t>posto dantas</t>
-  </si>
-  <si>
-    <t>venda nao sincronizada</t>
-  </si>
-  <si>
-    <t>venda cancelada sem parceiro id, frota id e dependente id</t>
-  </si>
-  <si>
-    <t>posto central</t>
-  </si>
-  <si>
-    <t>abastecimento sem constar nas senhas</t>
-  </si>
-  <si>
-    <t>senha de mayara</t>
-  </si>
-  <si>
-    <t>jaguaribara 1</t>
-  </si>
-  <si>
-    <t>bug mfe cancelar venda e nao voltar o abastecimento</t>
-  </si>
-  <si>
-    <t>parnamirim</t>
-  </si>
-  <si>
-    <t>abastecimentos nao voltaram pra tela pos cancelamento gpos</t>
-  </si>
-  <si>
-    <t>nao localizei as vendas</t>
-  </si>
-  <si>
-    <t>padre cicero</t>
-  </si>
-  <si>
-    <t>domingos escada 1</t>
-  </si>
-  <si>
-    <t>vendas em contingencia</t>
-  </si>
-  <si>
-    <t>comandatuba</t>
-  </si>
-  <si>
-    <t>diferenças positivas</t>
-  </si>
-  <si>
-    <t>passei que nao impedem o fechamento</t>
-  </si>
-  <si>
-    <t>posto santa rita</t>
-  </si>
-  <si>
-    <t>domingos 406</t>
-  </si>
-  <si>
-    <t>abastecimentos sem constar no pdv</t>
-  </si>
-  <si>
-    <t>já baixados com coo botei status F</t>
-  </si>
-  <si>
-    <t>posto jan</t>
-  </si>
-  <si>
-    <t>venda cancelada sem parceiro id, frota id, dependente id e sem usuario id</t>
-  </si>
-  <si>
-    <t>posto atalaia</t>
-  </si>
-  <si>
-    <t>mandacaru 1</t>
-  </si>
-  <si>
-    <t>felicidade 2</t>
   </si>
 </sst>
 </file>
@@ -502,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,204 +415,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18470FE9-FD7F-4E94-879E-63B089AE6B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF2C726-5165-48FF-8789-4A8CAD2CA391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>Nome</t>
   </si>
@@ -34,6 +34,132 @@
   </si>
   <si>
     <t>Resolucao</t>
+  </si>
+  <si>
+    <t>posto canarinho</t>
+  </si>
+  <si>
+    <t>duvida sobre contingencia</t>
+  </si>
+  <si>
+    <t>sefaz ainda fora do ar</t>
+  </si>
+  <si>
+    <t>liberacao de numero logico</t>
+  </si>
+  <si>
+    <t>feita liberacao na minha senha</t>
+  </si>
+  <si>
+    <t>Junior Revenda</t>
+  </si>
+  <si>
+    <t>Domingos Riachuelo</t>
+  </si>
+  <si>
+    <t>abastecimento sumiu</t>
+  </si>
+  <si>
+    <t>abastecinento nao voltou pos venda cancelada</t>
+  </si>
+  <si>
+    <t>Posto Montadas</t>
+  </si>
+  <si>
+    <t>venda nao sincronizada</t>
+  </si>
+  <si>
+    <t>venda cancelada com campos null</t>
+  </si>
+  <si>
+    <t>Litoral norte</t>
+  </si>
+  <si>
+    <t>Domingos Parnamirim</t>
+  </si>
+  <si>
+    <t>Domingos Junco</t>
+  </si>
+  <si>
+    <t>Fechar movimento</t>
+  </si>
+  <si>
+    <t>movimento de impressora aberto, fechei no retaguarda</t>
+  </si>
+  <si>
+    <t>Posto Safra</t>
+  </si>
+  <si>
+    <t>Central rede domingos</t>
+  </si>
+  <si>
+    <t>moeda sem funcionar com tabela de precos</t>
+  </si>
+  <si>
+    <t>moeda nao ativa para recebimentos e nao marcada para apenas no inicio da venda</t>
+  </si>
+  <si>
+    <t>Posto sao francisco rn</t>
+  </si>
+  <si>
+    <t>Domingos copacabana</t>
+  </si>
+  <si>
+    <t>abastecimento nao chegou no</t>
+  </si>
+  <si>
+    <t>abastecimento nao chegou no pdv, log não consta e nem no banco de dados. Cliente alertou sobre bomba com problemas</t>
+  </si>
+  <si>
+    <t>domingos assu</t>
+  </si>
+  <si>
+    <t>auto posto nascimento</t>
+  </si>
+  <si>
+    <t>capia III</t>
+  </si>
+  <si>
+    <t>retirar abastecimento</t>
+  </si>
+  <si>
+    <t>abastecimento do bico 27 oculto, segundo gerente o frentista nao estava no posto no horario do abastecimento</t>
+  </si>
+  <si>
+    <t>dudu diesel</t>
+  </si>
+  <si>
+    <t>abastecimentos sem cair</t>
+  </si>
+  <si>
+    <t>concentrador travado</t>
+  </si>
+  <si>
+    <t>posto spx</t>
+  </si>
+  <si>
+    <t>auto posto 101</t>
+  </si>
+  <si>
+    <t>centro caico</t>
+  </si>
+  <si>
+    <t>abastecimento voltou para tela</t>
+  </si>
+  <si>
+    <t>abastecimento do dia anterior, ocultei no banco</t>
+  </si>
+  <si>
+    <t>mandacaru 1</t>
+  </si>
+  <si>
+    <t>nova cruz</t>
+  </si>
+  <si>
+    <t>passei para cliente que não daria problemas para fechar o turno, apenas se fosse negativa a diferenca</t>
+  </si>
+  <si>
+    <t>diferenca positiva</t>
   </si>
 </sst>
 </file>
@@ -391,17 +517,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -415,6 +541,259 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF2C726-5165-48FF-8789-4A8CAD2CA391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889D031-B50A-47CE-89D1-A67384E8005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nome</t>
   </si>
@@ -34,132 +34,6 @@
   </si>
   <si>
     <t>Resolucao</t>
-  </si>
-  <si>
-    <t>posto canarinho</t>
-  </si>
-  <si>
-    <t>duvida sobre contingencia</t>
-  </si>
-  <si>
-    <t>sefaz ainda fora do ar</t>
-  </si>
-  <si>
-    <t>liberacao de numero logico</t>
-  </si>
-  <si>
-    <t>feita liberacao na minha senha</t>
-  </si>
-  <si>
-    <t>Junior Revenda</t>
-  </si>
-  <si>
-    <t>Domingos Riachuelo</t>
-  </si>
-  <si>
-    <t>abastecimento sumiu</t>
-  </si>
-  <si>
-    <t>abastecinento nao voltou pos venda cancelada</t>
-  </si>
-  <si>
-    <t>Posto Montadas</t>
-  </si>
-  <si>
-    <t>venda nao sincronizada</t>
-  </si>
-  <si>
-    <t>venda cancelada com campos null</t>
-  </si>
-  <si>
-    <t>Litoral norte</t>
-  </si>
-  <si>
-    <t>Domingos Parnamirim</t>
-  </si>
-  <si>
-    <t>Domingos Junco</t>
-  </si>
-  <si>
-    <t>Fechar movimento</t>
-  </si>
-  <si>
-    <t>movimento de impressora aberto, fechei no retaguarda</t>
-  </si>
-  <si>
-    <t>Posto Safra</t>
-  </si>
-  <si>
-    <t>Central rede domingos</t>
-  </si>
-  <si>
-    <t>moeda sem funcionar com tabela de precos</t>
-  </si>
-  <si>
-    <t>moeda nao ativa para recebimentos e nao marcada para apenas no inicio da venda</t>
-  </si>
-  <si>
-    <t>Posto sao francisco rn</t>
-  </si>
-  <si>
-    <t>Domingos copacabana</t>
-  </si>
-  <si>
-    <t>abastecimento nao chegou no</t>
-  </si>
-  <si>
-    <t>abastecimento nao chegou no pdv, log não consta e nem no banco de dados. Cliente alertou sobre bomba com problemas</t>
-  </si>
-  <si>
-    <t>domingos assu</t>
-  </si>
-  <si>
-    <t>auto posto nascimento</t>
-  </si>
-  <si>
-    <t>capia III</t>
-  </si>
-  <si>
-    <t>retirar abastecimento</t>
-  </si>
-  <si>
-    <t>abastecimento do bico 27 oculto, segundo gerente o frentista nao estava no posto no horario do abastecimento</t>
-  </si>
-  <si>
-    <t>dudu diesel</t>
-  </si>
-  <si>
-    <t>abastecimentos sem cair</t>
-  </si>
-  <si>
-    <t>concentrador travado</t>
-  </si>
-  <si>
-    <t>posto spx</t>
-  </si>
-  <si>
-    <t>auto posto 101</t>
-  </si>
-  <si>
-    <t>centro caico</t>
-  </si>
-  <si>
-    <t>abastecimento voltou para tela</t>
-  </si>
-  <si>
-    <t>abastecimento do dia anterior, ocultei no banco</t>
-  </si>
-  <si>
-    <t>mandacaru 1</t>
-  </si>
-  <si>
-    <t>nova cruz</t>
-  </si>
-  <si>
-    <t>passei para cliente que não daria problemas para fechar o turno, apenas se fosse negativa a diferenca</t>
-  </si>
-  <si>
-    <t>diferenca positiva</t>
   </si>
 </sst>
 </file>
@@ -517,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A2" sqref="A2:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,259 +415,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889D031-B50A-47CE-89D1-A67384E8005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A49973-D52C-4B4B-BA8A-647EF8B7864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Nome</t>
   </si>
@@ -34,6 +34,198 @@
   </si>
   <si>
     <t>Resolucao</t>
+  </si>
+  <si>
+    <t>mossoro 1</t>
+  </si>
+  <si>
+    <t>abastecimento sem cair</t>
+  </si>
+  <si>
+    <t>concentrador fechado</t>
+  </si>
+  <si>
+    <t>posto santa rita</t>
+  </si>
+  <si>
+    <t>venda cancelada</t>
+  </si>
+  <si>
+    <t>venda nao sincronizada</t>
+  </si>
+  <si>
+    <t>domingos assu</t>
+  </si>
+  <si>
+    <t>continuacao de atendimento joaran</t>
+  </si>
+  <si>
+    <t>concluiu</t>
+  </si>
+  <si>
+    <t>ipaumirim</t>
+  </si>
+  <si>
+    <t>sem emitir nfe</t>
+  </si>
+  <si>
+    <t>emissao nao habilitado para emissao nfe</t>
+  </si>
+  <si>
+    <t>itaja</t>
+  </si>
+  <si>
+    <t>pdv sincronizando</t>
+  </si>
+  <si>
+    <t>falei para aguardar</t>
+  </si>
+  <si>
+    <t>domingos 020</t>
+  </si>
+  <si>
+    <t>fechamento de turno</t>
+  </si>
+  <si>
+    <t>bico 3 parado, botei para manual e mandei audio explicando como digitar encerrante</t>
+  </si>
+  <si>
+    <t>posto alianca</t>
+  </si>
+  <si>
+    <t>domingos mm</t>
+  </si>
+  <si>
+    <t>recriar banco para sincronizar vendas</t>
+  </si>
+  <si>
+    <t>domingos br 020</t>
+  </si>
+  <si>
+    <t>criar bico arla</t>
+  </si>
+  <si>
+    <t>feita criacao de bicos</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>ajuda para acesso a nova empresa</t>
+  </si>
+  <si>
+    <t>feita inclusao no usuario da empresa</t>
+  </si>
+  <si>
+    <t>josue</t>
+  </si>
+  <si>
+    <t>erro no parnamirim</t>
+  </si>
+  <si>
+    <t>trocou maquina principal e não ajustou ip no config</t>
+  </si>
+  <si>
+    <t>posto safra</t>
+  </si>
+  <si>
+    <t>posto dantas</t>
+  </si>
+  <si>
+    <t>litoral norte</t>
+  </si>
+  <si>
+    <t>lajes</t>
+  </si>
+  <si>
+    <t>diferença fechamento caixa sangria</t>
+  </si>
+  <si>
+    <t>orientei a fazer a sangria faltante</t>
+  </si>
+  <si>
+    <t>domingos jaguariri</t>
+  </si>
+  <si>
+    <t>duvida sobre vendas em contingencia</t>
+  </si>
+  <si>
+    <t>expliquei que nao da problema no fechamento</t>
+  </si>
+  <si>
+    <t>tangara 1</t>
+  </si>
+  <si>
+    <t>espirito sanrto</t>
+  </si>
+  <si>
+    <t>ajuste de mapa do posto</t>
+  </si>
+  <si>
+    <t>mapa todo errado, revenda mandou ver com plantao.</t>
+  </si>
+  <si>
+    <t>paraiso filial</t>
+  </si>
+  <si>
+    <t>posto cruzeiro</t>
+  </si>
+  <si>
+    <t>casa do milhao bico 6</t>
+  </si>
+  <si>
+    <t>ajustada casa turno fechado</t>
+  </si>
+  <si>
+    <t>santa rita I macau</t>
+  </si>
+  <si>
+    <t>parnamirim</t>
+  </si>
+  <si>
+    <t>posto sao pedro</t>
+  </si>
+  <si>
+    <t>paraiso matriz</t>
+  </si>
+  <si>
+    <t>venda nao chegou no pdv</t>
+  </si>
+  <si>
+    <t>abastecimento com pdv id preenchido</t>
+  </si>
+  <si>
+    <t>dados gpos</t>
+  </si>
+  <si>
+    <t>passado id gpos</t>
+  </si>
+  <si>
+    <t>concentrador travado</t>
+  </si>
+  <si>
+    <t>tive que  fechar pelo gerenciador e reabrir</t>
+  </si>
+  <si>
+    <t>mandacaru 1</t>
+  </si>
+  <si>
+    <t>auto posto 101</t>
+  </si>
+  <si>
+    <t>abastecimento sendo baixado em outro pdv</t>
+  </si>
+  <si>
+    <t>felicidade 3</t>
+  </si>
+  <si>
+    <t>diferenca negativa</t>
+  </si>
+  <si>
+    <t>gerou e cancelou para ajuste de rfid</t>
+  </si>
+  <si>
+    <t>parnamirim+A3A2:A34A1:A34C34A1:A34A2:A34</t>
   </si>
 </sst>
 </file>
@@ -391,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD24"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +607,369 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A49973-D52C-4B4B-BA8A-647EF8B7864F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FD0DC-091B-4CDB-B14F-411D39EB1C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Nome</t>
   </si>
@@ -36,196 +36,100 @@
     <t>Resolucao</t>
   </si>
   <si>
+    <t xml:space="preserve">J A COMBUSTIVEIS </t>
+  </si>
+  <si>
+    <t>abastecimento sem cair</t>
+  </si>
+  <si>
+    <t>concentrador travado</t>
+  </si>
+  <si>
+    <t>domingos md</t>
+  </si>
+  <si>
+    <t>pdv travado</t>
+  </si>
+  <si>
+    <t>um dos pdvs tava com muitos alertas de pdv aberto e no outro pdv o que travou foi o computador</t>
+  </si>
+  <si>
+    <t>boqueirao 1</t>
+  </si>
+  <si>
+    <t>sem abrir pdv</t>
+  </si>
+  <si>
+    <t>icone do pdv foi excluido</t>
+  </si>
+  <si>
+    <t>posto central</t>
+  </si>
+  <si>
+    <t>ayla auto posto MG</t>
+  </si>
+  <si>
+    <t>venda nao sincronizada</t>
+  </si>
+  <si>
+    <t>venda cancelada</t>
+  </si>
+  <si>
+    <t>duplicidade gpos</t>
+  </si>
+  <si>
+    <t>ajustado e cliente confirmou ter ficado ok</t>
+  </si>
+  <si>
+    <t>abastecimento sumiu</t>
+  </si>
+  <si>
+    <t>status f mas sem venda vinculada, reativado</t>
+  </si>
+  <si>
+    <t>posto padre cicero</t>
+  </si>
+  <si>
+    <t>domingos br 020</t>
+  </si>
+  <si>
+    <t>abastecimento sem rfid</t>
+  </si>
+  <si>
+    <t>oculto no banco.</t>
+  </si>
+  <si>
     <t>mossoro 1</t>
   </si>
   <si>
-    <t>abastecimento sem cair</t>
-  </si>
-  <si>
-    <t>concentrador fechado</t>
-  </si>
-  <si>
-    <t>posto santa rita</t>
-  </si>
-  <si>
-    <t>venda cancelada</t>
-  </si>
-  <si>
-    <t>venda nao sincronizada</t>
-  </si>
-  <si>
-    <t>domingos assu</t>
-  </si>
-  <si>
-    <t>continuacao de atendimento joaran</t>
-  </si>
-  <si>
-    <t>concluiu</t>
-  </si>
-  <si>
-    <t>ipaumirim</t>
-  </si>
-  <si>
-    <t>sem emitir nfe</t>
-  </si>
-  <si>
-    <t>emissao nao habilitado para emissao nfe</t>
-  </si>
-  <si>
-    <t>itaja</t>
-  </si>
-  <si>
-    <t>pdv sincronizando</t>
-  </si>
-  <si>
-    <t>falei para aguardar</t>
-  </si>
-  <si>
-    <t>domingos 020</t>
-  </si>
-  <si>
-    <t>fechamento de turno</t>
-  </si>
-  <si>
-    <t>bico 3 parado, botei para manual e mandei audio explicando como digitar encerrante</t>
-  </si>
-  <si>
-    <t>posto alianca</t>
-  </si>
-  <si>
-    <t>domingos mm</t>
-  </si>
-  <si>
-    <t>recriar banco para sincronizar vendas</t>
-  </si>
-  <si>
-    <t>domingos br 020</t>
-  </si>
-  <si>
-    <t>criar bico arla</t>
-  </si>
-  <si>
-    <t>feita criacao de bicos</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>ajuda para acesso a nova empresa</t>
-  </si>
-  <si>
-    <t>feita inclusao no usuario da empresa</t>
-  </si>
-  <si>
-    <t>josue</t>
-  </si>
-  <si>
-    <t>erro no parnamirim</t>
-  </si>
-  <si>
-    <t>trocou maquina principal e não ajustou ip no config</t>
-  </si>
-  <si>
-    <t>posto safra</t>
-  </si>
-  <si>
-    <t>posto dantas</t>
-  </si>
-  <si>
-    <t>litoral norte</t>
-  </si>
-  <si>
-    <t>lajes</t>
-  </si>
-  <si>
-    <t>diferença fechamento caixa sangria</t>
-  </si>
-  <si>
-    <t>orientei a fazer a sangria faltante</t>
-  </si>
-  <si>
-    <t>domingos jaguariri</t>
-  </si>
-  <si>
-    <t>duvida sobre vendas em contingencia</t>
-  </si>
-  <si>
-    <t>expliquei que nao da problema no fechamento</t>
-  </si>
-  <si>
-    <t>tangara 1</t>
-  </si>
-  <si>
-    <t>espirito sanrto</t>
-  </si>
-  <si>
-    <t>ajuste de mapa do posto</t>
-  </si>
-  <si>
-    <t>mapa todo errado, revenda mandou ver com plantao.</t>
-  </si>
-  <si>
-    <t>paraiso filial</t>
-  </si>
-  <si>
-    <t>posto cruzeiro</t>
-  </si>
-  <si>
-    <t>casa do milhao bico 6</t>
-  </si>
-  <si>
-    <t>ajustada casa turno fechado</t>
-  </si>
-  <si>
-    <t>santa rita I macau</t>
-  </si>
-  <si>
-    <t>parnamirim</t>
-  </si>
-  <si>
-    <t>posto sao pedro</t>
-  </si>
-  <si>
-    <t>paraiso matriz</t>
-  </si>
-  <si>
-    <t>venda nao chegou no pdv</t>
-  </si>
-  <si>
-    <t>abastecimento com pdv id preenchido</t>
-  </si>
-  <si>
-    <t>dados gpos</t>
-  </si>
-  <si>
-    <t>passado id gpos</t>
-  </si>
-  <si>
-    <t>concentrador travado</t>
-  </si>
-  <si>
-    <t>tive que  fechar pelo gerenciador e reabrir</t>
-  </si>
-  <si>
-    <t>mandacaru 1</t>
-  </si>
-  <si>
-    <t>auto posto 101</t>
-  </si>
-  <si>
-    <t>abastecimento sendo baixado em outro pdv</t>
-  </si>
-  <si>
-    <t>felicidade 3</t>
-  </si>
-  <si>
-    <t>diferenca negativa</t>
-  </si>
-  <si>
-    <t>gerou e cancelou para ajuste de rfid</t>
-  </si>
-  <si>
-    <t>parnamirim+A3A2:A34A1:A34C34A1:A34A2:A34</t>
+    <t>fechar movimento impressora gpos</t>
+  </si>
+  <si>
+    <t>feito no retaguarda</t>
+  </si>
+  <si>
+    <t>morada do vento MG</t>
+  </si>
+  <si>
+    <t>diferença grande de encerrantes no fechamento</t>
+  </si>
+  <si>
+    <t>dois turnos, o primeiro foi fechado errado.</t>
+  </si>
+  <si>
+    <t>domingos cm</t>
+  </si>
+  <si>
+    <t>abastecimento sumiu da tela</t>
+  </si>
+  <si>
+    <t>nem foi procurado no m73, ao buscar la, a venda foi finalizada.</t>
+  </si>
+  <si>
+    <t>tangara 2</t>
+  </si>
+  <si>
+    <t>erro de cadastro da moeda</t>
   </si>
 </sst>
 </file>
@@ -583,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,10 +527,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -645,329 +549,106 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FD0DC-091B-4CDB-B14F-411D39EB1C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043D5AF-222D-4E2F-B2AB-EDF6FEB9F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nome</t>
   </si>
@@ -34,102 +34,6 @@
   </si>
   <si>
     <t>Resolucao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J A COMBUSTIVEIS </t>
-  </si>
-  <si>
-    <t>abastecimento sem cair</t>
-  </si>
-  <si>
-    <t>concentrador travado</t>
-  </si>
-  <si>
-    <t>domingos md</t>
-  </si>
-  <si>
-    <t>pdv travado</t>
-  </si>
-  <si>
-    <t>um dos pdvs tava com muitos alertas de pdv aberto e no outro pdv o que travou foi o computador</t>
-  </si>
-  <si>
-    <t>boqueirao 1</t>
-  </si>
-  <si>
-    <t>sem abrir pdv</t>
-  </si>
-  <si>
-    <t>icone do pdv foi excluido</t>
-  </si>
-  <si>
-    <t>posto central</t>
-  </si>
-  <si>
-    <t>ayla auto posto MG</t>
-  </si>
-  <si>
-    <t>venda nao sincronizada</t>
-  </si>
-  <si>
-    <t>venda cancelada</t>
-  </si>
-  <si>
-    <t>duplicidade gpos</t>
-  </si>
-  <si>
-    <t>ajustado e cliente confirmou ter ficado ok</t>
-  </si>
-  <si>
-    <t>abastecimento sumiu</t>
-  </si>
-  <si>
-    <t>status f mas sem venda vinculada, reativado</t>
-  </si>
-  <si>
-    <t>posto padre cicero</t>
-  </si>
-  <si>
-    <t>domingos br 020</t>
-  </si>
-  <si>
-    <t>abastecimento sem rfid</t>
-  </si>
-  <si>
-    <t>oculto no banco.</t>
-  </si>
-  <si>
-    <t>mossoro 1</t>
-  </si>
-  <si>
-    <t>fechar movimento impressora gpos</t>
-  </si>
-  <si>
-    <t>feito no retaguarda</t>
-  </si>
-  <si>
-    <t>morada do vento MG</t>
-  </si>
-  <si>
-    <t>diferença grande de encerrantes no fechamento</t>
-  </si>
-  <si>
-    <t>dois turnos, o primeiro foi fechado errado.</t>
-  </si>
-  <si>
-    <t>domingos cm</t>
-  </si>
-  <si>
-    <t>abastecimento sumiu da tela</t>
-  </si>
-  <si>
-    <t>nem foi procurado no m73, ao buscar la, a venda foi finalizada.</t>
-  </si>
-  <si>
-    <t>tangara 2</t>
-  </si>
-  <si>
-    <t>erro de cadastro da moeda</t>
   </si>
 </sst>
 </file>
@@ -487,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,146 +415,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043D5AF-222D-4E2F-B2AB-EDF6FEB9F141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A5EEB-5184-4033-A93A-D872682B294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Nome</t>
   </si>
@@ -34,6 +34,117 @@
   </si>
   <si>
     <t>Resolucao</t>
+  </si>
+  <si>
+    <t>novo lino 2</t>
+  </si>
+  <si>
+    <t>abastecimentos sem cair</t>
+  </si>
+  <si>
+    <t>concentrador fechado, falei com bruna e a ensinei a corrigir</t>
+  </si>
+  <si>
+    <t>posto palavianas MG</t>
+  </si>
+  <si>
+    <t>concentrador fechado, falei com cliente e o ensinei a corrigir</t>
+  </si>
+  <si>
+    <t>domingos sousa</t>
+  </si>
+  <si>
+    <t>abastecimentos perdidos</t>
+  </si>
+  <si>
+    <t>dois bicos sem comunicar, bicos 1 e 2</t>
+  </si>
+  <si>
+    <t>tangara 2</t>
+  </si>
+  <si>
+    <t>automaçao travada</t>
+  </si>
+  <si>
+    <t>ao conectar tava tudo ok</t>
+  </si>
+  <si>
+    <t>junior</t>
+  </si>
+  <si>
+    <t>pedindo liberação de cliente</t>
+  </si>
+  <si>
+    <t>feita liberacao do  J A passagem novo</t>
+  </si>
+  <si>
+    <t>br 020</t>
+  </si>
+  <si>
+    <t>erro envio de cupom fiscal</t>
+  </si>
+  <si>
+    <t>reiniciou equipamento mfe, internet e computador e voltou a funcionar.</t>
+  </si>
+  <si>
+    <t>posto xucurus</t>
+  </si>
+  <si>
+    <t>problemas fechamento</t>
+  </si>
+  <si>
+    <t>visto que era automacao sem comunicar, o cabo de rede estava com mal contato, retirando e conectando de novo voltou a funcionar normal</t>
+  </si>
+  <si>
+    <t>sao goncalo 2</t>
+  </si>
+  <si>
+    <t>impressora sem funcionar</t>
+  </si>
+  <si>
+    <t>trocou porta usb, reinstalei driver, reinciei maquina e nada da mesma voltar. Com status nao conectada</t>
+  </si>
+  <si>
+    <t>posto do moinho</t>
+  </si>
+  <si>
+    <t>abastecimento sem rfid</t>
+  </si>
+  <si>
+    <t>chegou sem rfid da automacao, ocultei e alertei a cliente sobre possibilidade de diferenca sobre o mesmo.</t>
+  </si>
+  <si>
+    <t>diferenca fechamento de turno</t>
+  </si>
+  <si>
+    <t>bico 1 e 2 estavam fora da automacao, orientei a baixar conforme falei mais cedo com o cliente</t>
+  </si>
+  <si>
+    <t>domingos copacabana</t>
+  </si>
+  <si>
+    <t>problema fechamento de turno</t>
+  </si>
+  <si>
+    <t>nenhum problema encontrado.</t>
+  </si>
+  <si>
+    <t>abastecimento sem constar no pdv</t>
+  </si>
+  <si>
+    <t>status p com pdv_id preenchido</t>
+  </si>
+  <si>
+    <t>domingos jaguarari</t>
+  </si>
+  <si>
+    <t>auto posto cabralia</t>
+  </si>
+  <si>
+    <t>automacao sem comunicar</t>
+  </si>
+  <si>
+    <t>cliente optou por deixar bicos em modo manual para fechar o turno</t>
   </si>
 </sst>
 </file>
@@ -391,17 +502,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="111.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -415,6 +526,149 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A5EEB-5184-4033-A93A-D872682B294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD37ED-E7E9-4590-9E0D-719C9B5ADD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nome</t>
   </si>
@@ -34,117 +34,6 @@
   </si>
   <si>
     <t>Resolucao</t>
-  </si>
-  <si>
-    <t>novo lino 2</t>
-  </si>
-  <si>
-    <t>abastecimentos sem cair</t>
-  </si>
-  <si>
-    <t>concentrador fechado, falei com bruna e a ensinei a corrigir</t>
-  </si>
-  <si>
-    <t>posto palavianas MG</t>
-  </si>
-  <si>
-    <t>concentrador fechado, falei com cliente e o ensinei a corrigir</t>
-  </si>
-  <si>
-    <t>domingos sousa</t>
-  </si>
-  <si>
-    <t>abastecimentos perdidos</t>
-  </si>
-  <si>
-    <t>dois bicos sem comunicar, bicos 1 e 2</t>
-  </si>
-  <si>
-    <t>tangara 2</t>
-  </si>
-  <si>
-    <t>automaçao travada</t>
-  </si>
-  <si>
-    <t>ao conectar tava tudo ok</t>
-  </si>
-  <si>
-    <t>junior</t>
-  </si>
-  <si>
-    <t>pedindo liberação de cliente</t>
-  </si>
-  <si>
-    <t>feita liberacao do  J A passagem novo</t>
-  </si>
-  <si>
-    <t>br 020</t>
-  </si>
-  <si>
-    <t>erro envio de cupom fiscal</t>
-  </si>
-  <si>
-    <t>reiniciou equipamento mfe, internet e computador e voltou a funcionar.</t>
-  </si>
-  <si>
-    <t>posto xucurus</t>
-  </si>
-  <si>
-    <t>problemas fechamento</t>
-  </si>
-  <si>
-    <t>visto que era automacao sem comunicar, o cabo de rede estava com mal contato, retirando e conectando de novo voltou a funcionar normal</t>
-  </si>
-  <si>
-    <t>sao goncalo 2</t>
-  </si>
-  <si>
-    <t>impressora sem funcionar</t>
-  </si>
-  <si>
-    <t>trocou porta usb, reinstalei driver, reinciei maquina e nada da mesma voltar. Com status nao conectada</t>
-  </si>
-  <si>
-    <t>posto do moinho</t>
-  </si>
-  <si>
-    <t>abastecimento sem rfid</t>
-  </si>
-  <si>
-    <t>chegou sem rfid da automacao, ocultei e alertei a cliente sobre possibilidade de diferenca sobre o mesmo.</t>
-  </si>
-  <si>
-    <t>diferenca fechamento de turno</t>
-  </si>
-  <si>
-    <t>bico 1 e 2 estavam fora da automacao, orientei a baixar conforme falei mais cedo com o cliente</t>
-  </si>
-  <si>
-    <t>domingos copacabana</t>
-  </si>
-  <si>
-    <t>problema fechamento de turno</t>
-  </si>
-  <si>
-    <t>nenhum problema encontrado.</t>
-  </si>
-  <si>
-    <t>abastecimento sem constar no pdv</t>
-  </si>
-  <si>
-    <t>status p com pdv_id preenchido</t>
-  </si>
-  <si>
-    <t>domingos jaguarari</t>
-  </si>
-  <si>
-    <t>auto posto cabralia</t>
-  </si>
-  <si>
-    <t>automacao sem comunicar</t>
-  </si>
-  <si>
-    <t>cliente optou por deixar bicos em modo manual para fechar o turno</t>
   </si>
 </sst>
 </file>
@@ -502,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,149 +415,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CD37ED-E7E9-4590-9E0D-719C9B5ADD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565AAFDB-2DE7-4460-8083-F21A00502412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -394,14 +394,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="127.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565AAFDB-2DE7-4460-8083-F21A00502412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3D23B-FBFC-4C9E-9745-52075C1BBE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,5 +418,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="128" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documentos\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A3D23B-FBFC-4C9E-9745-52075C1BBE7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09602B-C5D0-4292-8F55-802BFE70EEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,15 +25,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Descricao</t>
-  </si>
-  <si>
-    <t>Resolucao</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+  <si>
+    <t>feito ajuste no banco e a venda passou.</t>
+  </si>
+  <si>
+    <t>encerrante final não é superior ao encerrante inicial</t>
+  </si>
+  <si>
+    <t>posto rotary</t>
+  </si>
+  <si>
+    <t>feita troca de bicos e de preço, mesmo tanque já usado no bico 2 segundo a cliente. Não houve teste de abastecimento por falta de combustível</t>
+  </si>
+  <si>
+    <t>troca de bico 1 de diesel s10 para gasolina</t>
+  </si>
+  <si>
+    <t>posto três irmãos</t>
+  </si>
+  <si>
+    <t>erro no bico 7 casa do milhão negativo, ajustaram para 2  errado, ajustei para 1 e sanou a diferença</t>
+  </si>
+  <si>
+    <t>casa do milhao</t>
+  </si>
+  <si>
+    <t>parnamirim</t>
+  </si>
+  <si>
+    <t>concentrador travado, reiniciad o voltou a cair abastecimento no pdv.</t>
+  </si>
+  <si>
+    <t>abastecimento sem cair no pdv</t>
+  </si>
+  <si>
+    <t>posto padre cicero</t>
+  </si>
+  <si>
+    <t>enecrrante inicial estava 0, ocultei os mesmos no banco pois chegaram sem rfid no log</t>
+  </si>
+  <si>
+    <t>abastecimento sem rfid</t>
+  </si>
+  <si>
+    <t>domingos barro</t>
+  </si>
+  <si>
+    <t>analise realizada, ajustado RFID de Jaine 8598ECD52C8688E8</t>
+  </si>
+  <si>
+    <t>diferença negativa 11 litros bico 18</t>
+  </si>
+  <si>
+    <t>posto tangara 1</t>
+  </si>
+  <si>
+    <t>ip do pdv principal mudou, ajustei e voltou a funcionar o pdv 2</t>
+  </si>
+  <si>
+    <t>pdv 2 sem comunicar com o principal</t>
+  </si>
+  <si>
+    <t>ensinei Wilton a como realizar a troca de preços pelo sistema</t>
+  </si>
+  <si>
+    <t>ajuste de preço nivel 2</t>
+  </si>
+  <si>
+    <t>posto infinity</t>
+  </si>
+  <si>
+    <t>abastecimento duplicado no banco de dados, o segundo foi ocultado.</t>
+  </si>
+  <si>
+    <t>abastecimento duplicado</t>
+  </si>
+  <si>
+    <t>Resolução</t>
+  </si>
+  <si>
+    <t>Problema</t>
+  </si>
+  <si>
+    <t>Empresa</t>
   </si>
 </sst>
 </file>
@@ -391,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,13 +481,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D09602B-C5D0-4292-8F55-802BFE70EEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1B269-8FCC-414A-A22A-F5275A8B8C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,82 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t>feito ajuste no banco e a venda passou.</t>
-  </si>
-  <si>
-    <t>encerrante final não é superior ao encerrante inicial</t>
-  </si>
-  <si>
-    <t>posto rotary</t>
-  </si>
-  <si>
-    <t>feita troca de bicos e de preço, mesmo tanque já usado no bico 2 segundo a cliente. Não houve teste de abastecimento por falta de combustível</t>
-  </si>
-  <si>
-    <t>troca de bico 1 de diesel s10 para gasolina</t>
-  </si>
-  <si>
-    <t>posto três irmãos</t>
-  </si>
-  <si>
-    <t>erro no bico 7 casa do milhão negativo, ajustaram para 2  errado, ajustei para 1 e sanou a diferença</t>
-  </si>
-  <si>
-    <t>casa do milhao</t>
-  </si>
-  <si>
-    <t>parnamirim</t>
-  </si>
-  <si>
-    <t>concentrador travado, reiniciad o voltou a cair abastecimento no pdv.</t>
-  </si>
-  <si>
-    <t>abastecimento sem cair no pdv</t>
-  </si>
-  <si>
-    <t>posto padre cicero</t>
-  </si>
-  <si>
-    <t>enecrrante inicial estava 0, ocultei os mesmos no banco pois chegaram sem rfid no log</t>
-  </si>
-  <si>
-    <t>abastecimento sem rfid</t>
-  </si>
-  <si>
-    <t>domingos barro</t>
-  </si>
-  <si>
-    <t>analise realizada, ajustado RFID de Jaine 8598ECD52C8688E8</t>
-  </si>
-  <si>
-    <t>diferença negativa 11 litros bico 18</t>
-  </si>
-  <si>
-    <t>posto tangara 1</t>
-  </si>
-  <si>
-    <t>ip do pdv principal mudou, ajustei e voltou a funcionar o pdv 2</t>
-  </si>
-  <si>
-    <t>pdv 2 sem comunicar com o principal</t>
-  </si>
-  <si>
-    <t>ensinei Wilton a como realizar a troca de preços pelo sistema</t>
-  </si>
-  <si>
-    <t>ajuste de preço nivel 2</t>
-  </si>
-  <si>
-    <t>posto infinity</t>
-  </si>
-  <si>
-    <t>abastecimento duplicado no banco de dados, o segundo foi ocultado.</t>
-  </si>
-  <si>
-    <t>abastecimento duplicado</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Resolução</t>
   </si>
@@ -115,7 +40,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +50,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,126 +403,36 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="119.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C1B269-8FCC-414A-A22A-F5275A8B8C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B93663-D99E-43E6-B2BE-FE1ED33C9524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Resolução</t>
   </si>
@@ -34,13 +34,31 @@
   </si>
   <si>
     <t>Empresa</t>
+  </si>
+  <si>
+    <t>Posto Três Irmãos</t>
+  </si>
+  <si>
+    <t>Troca de bicos</t>
+  </si>
+  <si>
+    <t>feita troca de bicos e ajuste deles, sem nenhum preocupação</t>
+  </si>
+  <si>
+    <t>Júlio</t>
+  </si>
+  <si>
+    <t>Teste de Digitação</t>
+  </si>
+  <si>
+    <t>Digitação com acentuação sendo assim tão complicada!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,14 +68,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,7 +95,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,39 +410,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="132.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="132.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B93663-D99E-43E6-B2BE-FE1ED33C9524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23919A37-DE9B-4608-9F0E-EB7EAB3384BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Resolução</t>
   </si>
@@ -36,22 +36,43 @@
     <t>Empresa</t>
   </si>
   <si>
-    <t>Posto Três Irmãos</t>
-  </si>
-  <si>
-    <t>Troca de bicos</t>
-  </si>
-  <si>
-    <t>feita troca de bicos e ajuste deles, sem nenhum preocupação</t>
-  </si>
-  <si>
-    <t>Júlio</t>
-  </si>
-  <si>
-    <t>Teste de Digitação</t>
-  </si>
-  <si>
-    <t>Digitação com acentuação sendo assim tão complicada!</t>
+    <t>Domingos Tabajara</t>
+  </si>
+  <si>
+    <t>Diferença negativa pre fechamento 24 litros bico 14</t>
+  </si>
+  <si>
+    <t>analise realizada, pertence a Renata Camila, abri a venda e a cancelei. Ajustei o rfid e avisei ao cliente.</t>
+  </si>
+  <si>
+    <t>sem cair abastecimento</t>
+  </si>
+  <si>
+    <t>máquina muito lenta, impossível verificar nada.</t>
+  </si>
+  <si>
+    <t>itaja</t>
+  </si>
+  <si>
+    <t>diferenças altas negativas bicos 7 a 10</t>
+  </si>
+  <si>
+    <t>houve troca de placa da bomba, Junior autorizou ajuste de encerrante para seguir o uso</t>
+  </si>
+  <si>
+    <t>posto Jacarau</t>
+  </si>
+  <si>
+    <t>maquina mais rapida, apenas abri o concentrador e resolveu</t>
+  </si>
+  <si>
+    <t>mossoro 1</t>
+  </si>
+  <si>
+    <t>Diferença negativa pre fechamento 534 litros bico 39</t>
+  </si>
+  <si>
+    <t>eu já sabia qual era o abastecimento, apenas o reativei via script.</t>
   </si>
 </sst>
 </file>
@@ -93,9 +114,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,51 +430,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="132.28515625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23919A37-DE9B-4608-9F0E-EB7EAB3384BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B072028-2A54-4E43-83C1-2FB5AF848063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
+    <workbookView xWindow="20370" yWindow="120" windowWidth="18000" windowHeight="9270" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Resolução</t>
   </si>
@@ -34,45 +34,6 @@
   </si>
   <si>
     <t>Empresa</t>
-  </si>
-  <si>
-    <t>Domingos Tabajara</t>
-  </si>
-  <si>
-    <t>Diferença negativa pre fechamento 24 litros bico 14</t>
-  </si>
-  <si>
-    <t>analise realizada, pertence a Renata Camila, abri a venda e a cancelei. Ajustei o rfid e avisei ao cliente.</t>
-  </si>
-  <si>
-    <t>sem cair abastecimento</t>
-  </si>
-  <si>
-    <t>máquina muito lenta, impossível verificar nada.</t>
-  </si>
-  <si>
-    <t>itaja</t>
-  </si>
-  <si>
-    <t>diferenças altas negativas bicos 7 a 10</t>
-  </si>
-  <si>
-    <t>houve troca de placa da bomba, Junior autorizou ajuste de encerrante para seguir o uso</t>
-  </si>
-  <si>
-    <t>posto Jacarau</t>
-  </si>
-  <si>
-    <t>maquina mais rapida, apenas abri o concentrador e resolveu</t>
-  </si>
-  <si>
-    <t>mossoro 1</t>
-  </si>
-  <si>
-    <t>Diferença negativa pre fechamento 534 litros bico 39</t>
-  </si>
-  <si>
-    <t>eu já sabia qual era o abastecimento, apenas o reativei via script.</t>
   </si>
 </sst>
 </file>
@@ -430,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,61 +415,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B072028-2A54-4E43-83C1-2FB5AF848063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF9B11-1037-452A-8B68-540D5F89D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="120" windowWidth="18000" windowHeight="9270" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Resolução</t>
   </si>
@@ -34,6 +34,63 @@
   </si>
   <si>
     <t>Empresa</t>
+  </si>
+  <si>
+    <t>santa rita macau</t>
+  </si>
+  <si>
+    <t>inativar sangria</t>
+  </si>
+  <si>
+    <t>inativado no retaguarda.</t>
+  </si>
+  <si>
+    <t>boqueirao 1</t>
+  </si>
+  <si>
+    <t>instalar pdv 2 na maquina</t>
+  </si>
+  <si>
+    <t>botei pdv e ajustei id do pdv mas a maquina estava com faixa divergente</t>
+  </si>
+  <si>
+    <t>padre cicero bom jesus</t>
+  </si>
+  <si>
+    <t>pdv impossivel de mexer, muito lento</t>
+  </si>
+  <si>
+    <t>retirar contingência</t>
+  </si>
+  <si>
+    <t>pdv instalado e vendendo, falta tef. Deixei desmarcado</t>
+  </si>
+  <si>
+    <t>posto confiança</t>
+  </si>
+  <si>
+    <t>duplicidade gpos</t>
+  </si>
+  <si>
+    <t>domingos ipanguaçu</t>
+  </si>
+  <si>
+    <t>achar dono de abastecimento</t>
+  </si>
+  <si>
+    <t>não sabiam de quem era, mostrei na tela</t>
+  </si>
+  <si>
+    <t>ajustado no retaguarda e a venda passou na maquina</t>
+  </si>
+  <si>
+    <t>nova cruz 2</t>
+  </si>
+  <si>
+    <t>diferença bico 1</t>
+  </si>
+  <si>
+    <t>não tem registro de log do abastecimento em questão, nem no concentrador e nem na automação</t>
   </si>
 </sst>
 </file>
@@ -391,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +472,83 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF9B11-1037-452A-8B68-540D5F89D91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFE9FC-6BB9-4C82-9C93-95D27CFA1E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Resolução</t>
   </si>
@@ -36,61 +36,115 @@
     <t>Empresa</t>
   </si>
   <si>
-    <t>santa rita macau</t>
-  </si>
-  <si>
-    <t>inativar sangria</t>
-  </si>
-  <si>
-    <t>inativado no retaguarda.</t>
+    <t>auto posto leao</t>
+  </si>
+  <si>
+    <t>reinstalação de pdv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdv e concentrador reinstalados, ajustei certificado digital e ficou pendente ajuste de concentrador devido a porta e o CSC do mesmo. </t>
+  </si>
+  <si>
+    <t>configurar concentrador</t>
+  </si>
+  <si>
+    <t>cliente ajustou concentrador e pediu auxilio para comunicar, feito ajuste e começou a cair abastecimento</t>
   </si>
   <si>
     <t>boqueirao 1</t>
   </si>
   <si>
-    <t>instalar pdv 2 na maquina</t>
-  </si>
-  <si>
-    <t>botei pdv e ajustei id do pdv mas a maquina estava com faixa divergente</t>
+    <t>dúvida troca de computador</t>
+  </si>
+  <si>
+    <t>alertei a cliente que feita a troca eu precisaria ajustar toda a parte de sistema, inclusive o mfe e o tef</t>
+  </si>
+  <si>
+    <t>automação sem comunicar</t>
+  </si>
+  <si>
+    <t>faixa de ip diferente</t>
+  </si>
+  <si>
+    <t>fecha movimento de pdv 02</t>
+  </si>
+  <si>
+    <t>movimento fechado no retaguarda</t>
+  </si>
+  <si>
+    <t>ajuste de csc no pdv</t>
+  </si>
+  <si>
+    <t>feito ajuste e pdv ficou vendendo</t>
+  </si>
+  <si>
+    <t>ajuste de baixa de mais de dois abastecimento por vez</t>
+  </si>
+  <si>
+    <t>posto santa rita</t>
+  </si>
+  <si>
+    <t>valor em mãos não bate com valor pendente no sistema</t>
+  </si>
+  <si>
+    <t>internte lenta do posto, demorando a cair abastecimentos</t>
+  </si>
+  <si>
+    <t>consultei ramon, grupo dos técnicos e nenhum sabe onde retirar o bloqueio, enquanto eu tentava descobrir o cliente baixou tudo de 2 em 2</t>
+  </si>
+  <si>
+    <t>boqueirao 2</t>
+  </si>
+  <si>
+    <t>ajuda para fechar turno</t>
+  </si>
+  <si>
+    <t>passou não dar certo m43 e ao apertar funcionou</t>
   </si>
   <si>
     <t>padre cicero bom jesus</t>
   </si>
   <si>
-    <t>pdv impossivel de mexer, muito lento</t>
-  </si>
-  <si>
-    <t>retirar contingência</t>
-  </si>
-  <si>
-    <t>pdv instalado e vendendo, falta tef. Deixei desmarcado</t>
-  </si>
-  <si>
-    <t>posto confiança</t>
-  </si>
-  <si>
-    <t>duplicidade gpos</t>
-  </si>
-  <si>
-    <t>domingos ipanguaçu</t>
-  </si>
-  <si>
-    <t>achar dono de abastecimento</t>
-  </si>
-  <si>
-    <t>não sabiam de quem era, mostrei na tela</t>
-  </si>
-  <si>
-    <t>ajustado no retaguarda e a venda passou na maquina</t>
-  </si>
-  <si>
-    <t>nova cruz 2</t>
-  </si>
-  <si>
-    <t>diferença bico 1</t>
-  </si>
-  <si>
-    <t>não tem registro de log do abastecimento em questão, nem no concentrador e nem na automação</t>
+    <t>abastecimento sem cair na tela</t>
+  </si>
+  <si>
+    <t>concentrador travado</t>
+  </si>
+  <si>
+    <t>canarinho</t>
+  </si>
+  <si>
+    <t>abastecimento não chegou no pdv</t>
+  </si>
+  <si>
+    <t>pre fechamento sem diferenças, orientei a aguardar</t>
+  </si>
+  <si>
+    <t>domingos jaguarari</t>
+  </si>
+  <si>
+    <t>abastecimento sem cair no pdv</t>
+  </si>
+  <si>
+    <t>concentrador fechado, abriu e voltou ao normal</t>
+  </si>
+  <si>
+    <t>domingos lajes</t>
+  </si>
+  <si>
+    <t>abastecimento não aparece no pdv</t>
+  </si>
+  <si>
+    <t>pdv id preenchido em abastecimento pendente, ajustei e normalizou.</t>
+  </si>
+  <si>
+    <t>diferença positiva</t>
+  </si>
+  <si>
+    <t>alertei que não impede o pre fechamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mossoro IV </t>
   </si>
 </sst>
 </file>
@@ -448,16 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,68 +539,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CFE9FC-6BB9-4C82-9C93-95D27CFA1E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB422E52-19BF-4C04-BFD6-23F2D1BA9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Resolução</t>
   </si>
@@ -36,115 +36,112 @@
     <t>Empresa</t>
   </si>
   <si>
-    <t>auto posto leao</t>
-  </si>
-  <si>
-    <t>reinstalação de pdv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdv e concentrador reinstalados, ajustei certificado digital e ficou pendente ajuste de concentrador devido a porta e o CSC do mesmo. </t>
-  </si>
-  <si>
-    <t>configurar concentrador</t>
-  </si>
-  <si>
-    <t>cliente ajustou concentrador e pediu auxilio para comunicar, feito ajuste e começou a cair abastecimento</t>
+    <t>auto posto são joão MG</t>
+  </si>
+  <si>
+    <t>litragem incorreta no sistema</t>
   </si>
   <si>
     <t>boqueirao 1</t>
   </si>
   <si>
-    <t>dúvida troca de computador</t>
-  </si>
-  <si>
-    <t>alertei a cliente que feita a troca eu precisaria ajustar toda a parte de sistema, inclusive o mfe e o tef</t>
-  </si>
-  <si>
-    <t>automação sem comunicar</t>
-  </si>
-  <si>
-    <t>faixa de ip diferente</t>
-  </si>
-  <si>
-    <t>fecha movimento de pdv 02</t>
-  </si>
-  <si>
-    <t>movimento fechado no retaguarda</t>
-  </si>
-  <si>
-    <t>ajuste de csc no pdv</t>
-  </si>
-  <si>
-    <t>feito ajuste e pdv ficou vendendo</t>
-  </si>
-  <si>
-    <t>ajuste de baixa de mais de dois abastecimento por vez</t>
-  </si>
-  <si>
-    <t>posto santa rita</t>
-  </si>
-  <si>
-    <t>valor em mãos não bate com valor pendente no sistema</t>
-  </si>
-  <si>
-    <t>internte lenta do posto, demorando a cair abastecimentos</t>
-  </si>
-  <si>
-    <t>consultei ramon, grupo dos técnicos e nenhum sabe onde retirar o bloqueio, enquanto eu tentava descobrir o cliente baixou tudo de 2 em 2</t>
-  </si>
-  <si>
-    <t>boqueirao 2</t>
-  </si>
-  <si>
-    <t>ajuda para fechar turno</t>
-  </si>
-  <si>
-    <t>passou não dar certo m43 e ao apertar funcionou</t>
-  </si>
-  <si>
-    <t>padre cicero bom jesus</t>
-  </si>
-  <si>
-    <t>abastecimento sem cair na tela</t>
-  </si>
-  <si>
-    <t>concentrador travado</t>
-  </si>
-  <si>
-    <t>canarinho</t>
+    <t>erro ao tentar vincular cupom em nfe</t>
+  </si>
+  <si>
+    <t>mesma numeração já usada em outra nota, desvinculei e pedi novo teste, deu certo</t>
+  </si>
+  <si>
+    <t>domingos barro</t>
+  </si>
+  <si>
+    <t>ajuste de impressora</t>
+  </si>
+  <si>
+    <t>jaguaribara 1</t>
+  </si>
+  <si>
+    <t>pdv sem comunicar com a máquina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orientei a ver cabeamento no pc e o cabo de rede estava mal conectado </t>
+  </si>
+  <si>
+    <t>paraiso filial</t>
+  </si>
+  <si>
+    <t>erro venda pdv</t>
+  </si>
+  <si>
+    <t>erro data hora, ajustei a hora do pc e resolveu</t>
+  </si>
+  <si>
+    <t>impressora imprimindo cortada, reinstalei driver, ajustei margem e pedi troca de porta usb, não resolveu</t>
+  </si>
+  <si>
+    <t>posto infinity</t>
+  </si>
+  <si>
+    <t>erro emissão nfe</t>
+  </si>
+  <si>
+    <t>certificado digital difere, foi associado errado o certificado digital, ajustei e autorizou a nota</t>
+  </si>
+  <si>
+    <t>diferença negativa bico 5</t>
+  </si>
+  <si>
+    <t>diferença de 3 milhoes, casa do milhao ajustada para 0 e sanou</t>
+  </si>
+  <si>
+    <t>automação desconfigurou após queda de energia e as casas decimais, aprendi como ajustar e realizei o ajuste, bico 5 da bmoba 1 não está comunicando, deixei em modo manual</t>
+  </si>
+  <si>
+    <t>posto gruta</t>
+  </si>
+  <si>
+    <t>abastecimento sem cair no pdv</t>
   </si>
   <si>
     <t>abastecimento não chegou no pdv</t>
   </si>
   <si>
-    <t>pre fechamento sem diferenças, orientei a aguardar</t>
-  </si>
-  <si>
-    <t>domingos jaguarari</t>
-  </si>
-  <si>
-    <t>abastecimento sem cair no pdv</t>
-  </si>
-  <si>
-    <t>concentrador fechado, abriu e voltou ao normal</t>
-  </si>
-  <si>
-    <t>domingos lajes</t>
-  </si>
-  <si>
-    <t>abastecimento não aparece no pdv</t>
-  </si>
-  <si>
-    <t>pdv id preenchido em abastecimento pendente, ajustei e normalizou.</t>
-  </si>
-  <si>
-    <t>diferença positiva</t>
-  </si>
-  <si>
-    <t>alertei que não impede o pre fechamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mossoro IV </t>
+    <t>Automação sem pingar após queda de energia, voltou depois de uns minutos</t>
+  </si>
+  <si>
+    <t>feito pre fechamento e com a diferença negativa foi feita a analise mas não identificado por que não chegou nos logs, bicos 8 e 10, ocorreu queda de energia</t>
+  </si>
+  <si>
+    <t>faixa de ip divergente após queda de internet, orientado a verificar com técnico de redes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posto lorena </t>
+  </si>
+  <si>
+    <t>abastecimento duplicado no banco de dados</t>
+  </si>
+  <si>
+    <t>abastecimento sem rfid duplicado, ocultei no banco de dados</t>
+  </si>
+  <si>
+    <t>abastecimentos voltaram para tela</t>
+  </si>
+  <si>
+    <t>não voltaram, eram outros abastecimentos</t>
+  </si>
+  <si>
+    <t>mossoro IV</t>
+  </si>
+  <si>
+    <t>botar bicos em modo manual</t>
+  </si>
+  <si>
+    <t>bicos 13,14,15 e 16 em modo manual</t>
+  </si>
+  <si>
+    <t>remover abastecimento do banco de dados</t>
+  </si>
+  <si>
+    <t>ocultad oabastecimento no banco de dados.</t>
   </si>
 </sst>
 </file>
@@ -502,17 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="132.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="161.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,12 +531,12 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -556,12 +553,12 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -572,32 +569,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -605,101 +602,79 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB422E52-19BF-4C04-BFD6-23F2D1BA9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8690F993-789F-4685-BA8D-BB73CD360615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Resolução</t>
   </si>
@@ -34,114 +34,6 @@
   </si>
   <si>
     <t>Empresa</t>
-  </si>
-  <si>
-    <t>auto posto são joão MG</t>
-  </si>
-  <si>
-    <t>litragem incorreta no sistema</t>
-  </si>
-  <si>
-    <t>boqueirao 1</t>
-  </si>
-  <si>
-    <t>erro ao tentar vincular cupom em nfe</t>
-  </si>
-  <si>
-    <t>mesma numeração já usada em outra nota, desvinculei e pedi novo teste, deu certo</t>
-  </si>
-  <si>
-    <t>domingos barro</t>
-  </si>
-  <si>
-    <t>ajuste de impressora</t>
-  </si>
-  <si>
-    <t>jaguaribara 1</t>
-  </si>
-  <si>
-    <t>pdv sem comunicar com a máquina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orientei a ver cabeamento no pc e o cabo de rede estava mal conectado </t>
-  </si>
-  <si>
-    <t>paraiso filial</t>
-  </si>
-  <si>
-    <t>erro venda pdv</t>
-  </si>
-  <si>
-    <t>erro data hora, ajustei a hora do pc e resolveu</t>
-  </si>
-  <si>
-    <t>impressora imprimindo cortada, reinstalei driver, ajustei margem e pedi troca de porta usb, não resolveu</t>
-  </si>
-  <si>
-    <t>posto infinity</t>
-  </si>
-  <si>
-    <t>erro emissão nfe</t>
-  </si>
-  <si>
-    <t>certificado digital difere, foi associado errado o certificado digital, ajustei e autorizou a nota</t>
-  </si>
-  <si>
-    <t>diferença negativa bico 5</t>
-  </si>
-  <si>
-    <t>diferença de 3 milhoes, casa do milhao ajustada para 0 e sanou</t>
-  </si>
-  <si>
-    <t>automação desconfigurou após queda de energia e as casas decimais, aprendi como ajustar e realizei o ajuste, bico 5 da bmoba 1 não está comunicando, deixei em modo manual</t>
-  </si>
-  <si>
-    <t>posto gruta</t>
-  </si>
-  <si>
-    <t>abastecimento sem cair no pdv</t>
-  </si>
-  <si>
-    <t>abastecimento não chegou no pdv</t>
-  </si>
-  <si>
-    <t>Automação sem pingar após queda de energia, voltou depois de uns minutos</t>
-  </si>
-  <si>
-    <t>feito pre fechamento e com a diferença negativa foi feita a analise mas não identificado por que não chegou nos logs, bicos 8 e 10, ocorreu queda de energia</t>
-  </si>
-  <si>
-    <t>faixa de ip divergente após queda de internet, orientado a verificar com técnico de redes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posto lorena </t>
-  </si>
-  <si>
-    <t>abastecimento duplicado no banco de dados</t>
-  </si>
-  <si>
-    <t>abastecimento sem rfid duplicado, ocultei no banco de dados</t>
-  </si>
-  <si>
-    <t>abastecimentos voltaram para tela</t>
-  </si>
-  <si>
-    <t>não voltaram, eram outros abastecimentos</t>
-  </si>
-  <si>
-    <t>mossoro IV</t>
-  </si>
-  <si>
-    <t>botar bicos em modo manual</t>
-  </si>
-  <si>
-    <t>bicos 13,14,15 e 16 em modo manual</t>
-  </si>
-  <si>
-    <t>remover abastecimento do banco de dados</t>
-  </si>
-  <si>
-    <t>ocultad oabastecimento no banco de dados.</t>
   </si>
 </sst>
 </file>
@@ -499,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,160 +415,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8690F993-789F-4685-BA8D-BB73CD360615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1130925-4020-441E-899E-659E9D05F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -394,14 +394,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="161.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1130925-4020-441E-899E-659E9D05F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E0102-8FD1-4ECA-A293-6192DB34ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Resolução</t>
   </si>
@@ -34,6 +34,93 @@
   </si>
   <si>
     <t>Empresa</t>
+  </si>
+  <si>
+    <t>venda não sincronizada</t>
+  </si>
+  <si>
+    <t>venda cancelada, ajustei a venda e sincronizou e depois disso atualizei o pdv para sanar a questão</t>
+  </si>
+  <si>
+    <t>domingos br 222</t>
+  </si>
+  <si>
+    <t>pdv fechou e não estava encontrando atalho para reabrir</t>
+  </si>
+  <si>
+    <t>estava na lixeira, restaurei o atalho</t>
+  </si>
+  <si>
+    <t>estrela cajueiro</t>
+  </si>
+  <si>
+    <t>pdv sem exibir bicos após pico de energia</t>
+  </si>
+  <si>
+    <t>recriei banco de dados do pdv e voltou ao normal</t>
+  </si>
+  <si>
+    <t>domingos riachuelo</t>
+  </si>
+  <si>
+    <t>abastecimento sumiu</t>
+  </si>
+  <si>
+    <t>abastecimento com pdv id preenchido após ter sido aberto na gpos</t>
+  </si>
+  <si>
+    <t>posto safra</t>
+  </si>
+  <si>
+    <t>automação ainda sem comunicar</t>
+  </si>
+  <si>
+    <t>decidi parar os testes por que as bombas estão perdendo comunicação de acordo com eles, então é melhor deixar abastecendo mas sem tirar cupom do que parar tudo</t>
+  </si>
+  <si>
+    <t>conveniência salinas 2</t>
+  </si>
+  <si>
+    <t>pdv sem abrir</t>
+  </si>
+  <si>
+    <t>maquina sem internet, resolveu a net e voltou a funcionar o pdv</t>
+  </si>
+  <si>
+    <t>E L DE OLIVEIRA (salinas)</t>
+  </si>
+  <si>
+    <t>impressora sem imprimir</t>
+  </si>
+  <si>
+    <t>necessário reinstalar drivers e voltou a imprimir no pdv da pista</t>
+  </si>
+  <si>
+    <t>mossoro 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posto são francisco </t>
+  </si>
+  <si>
+    <t>erro baixa moeda pos</t>
+  </si>
+  <si>
+    <t>ajuste de moeda realizada</t>
+  </si>
+  <si>
+    <t>conveniência felicidade</t>
+  </si>
+  <si>
+    <t>pdv travado</t>
+  </si>
+  <si>
+    <t>fechei via gerenciador e reabri, cliente conseguiu realizar procedimento</t>
+  </si>
+  <si>
+    <t>bico eletronico, vinham digitando encerrante errado, gerente mandou colocar bico em modo manual</t>
+  </si>
+  <si>
+    <t>bico 20 com diferença negativa</t>
   </si>
 </sst>
 </file>
@@ -391,17 +478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="130.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -413,6 +500,127 @@
       </c>
       <c r="C1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E0102-8FD1-4ECA-A293-6192DB34ED07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853035A-BBD2-4FF5-8E94-212C6F79AD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Resolução</t>
   </si>
@@ -34,93 +34,6 @@
   </si>
   <si>
     <t>Empresa</t>
-  </si>
-  <si>
-    <t>venda não sincronizada</t>
-  </si>
-  <si>
-    <t>venda cancelada, ajustei a venda e sincronizou e depois disso atualizei o pdv para sanar a questão</t>
-  </si>
-  <si>
-    <t>domingos br 222</t>
-  </si>
-  <si>
-    <t>pdv fechou e não estava encontrando atalho para reabrir</t>
-  </si>
-  <si>
-    <t>estava na lixeira, restaurei o atalho</t>
-  </si>
-  <si>
-    <t>estrela cajueiro</t>
-  </si>
-  <si>
-    <t>pdv sem exibir bicos após pico de energia</t>
-  </si>
-  <si>
-    <t>recriei banco de dados do pdv e voltou ao normal</t>
-  </si>
-  <si>
-    <t>domingos riachuelo</t>
-  </si>
-  <si>
-    <t>abastecimento sumiu</t>
-  </si>
-  <si>
-    <t>abastecimento com pdv id preenchido após ter sido aberto na gpos</t>
-  </si>
-  <si>
-    <t>posto safra</t>
-  </si>
-  <si>
-    <t>automação ainda sem comunicar</t>
-  </si>
-  <si>
-    <t>decidi parar os testes por que as bombas estão perdendo comunicação de acordo com eles, então é melhor deixar abastecendo mas sem tirar cupom do que parar tudo</t>
-  </si>
-  <si>
-    <t>conveniência salinas 2</t>
-  </si>
-  <si>
-    <t>pdv sem abrir</t>
-  </si>
-  <si>
-    <t>maquina sem internet, resolveu a net e voltou a funcionar o pdv</t>
-  </si>
-  <si>
-    <t>E L DE OLIVEIRA (salinas)</t>
-  </si>
-  <si>
-    <t>impressora sem imprimir</t>
-  </si>
-  <si>
-    <t>necessário reinstalar drivers e voltou a imprimir no pdv da pista</t>
-  </si>
-  <si>
-    <t>mossoro 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posto são francisco </t>
-  </si>
-  <si>
-    <t>erro baixa moeda pos</t>
-  </si>
-  <si>
-    <t>ajuste de moeda realizada</t>
-  </si>
-  <si>
-    <t>conveniência felicidade</t>
-  </si>
-  <si>
-    <t>pdv travado</t>
-  </si>
-  <si>
-    <t>fechei via gerenciador e reabri, cliente conseguiu realizar procedimento</t>
-  </si>
-  <si>
-    <t>bico eletronico, vinham digitando encerrante errado, gerente mandou colocar bico em modo manual</t>
-  </si>
-  <si>
-    <t>bico 20 com diferença negativa</t>
   </si>
 </sst>
 </file>
@@ -478,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,127 +415,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853035A-BBD2-4FF5-8E94-212C6F79AD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B6B2C1-F4D3-4E6E-BC45-332053E8E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Resolução</t>
   </si>
@@ -34,6 +34,27 @@
   </si>
   <si>
     <t>Empresa</t>
+  </si>
+  <si>
+    <t>posto da serra</t>
+  </si>
+  <si>
+    <t>liberação</t>
+  </si>
+  <si>
+    <t>feita conforme solicitada</t>
+  </si>
+  <si>
+    <t>posto lorena</t>
+  </si>
+  <si>
+    <t>erro encerrante</t>
+  </si>
+  <si>
+    <t>encerrante final diverge do inicial, venda com valor baixo, ajustado encerrante manualmente</t>
+  </si>
+  <si>
+    <t>pdv perguntando qual impressora enviar impressão</t>
   </si>
 </sst>
 </file>
@@ -391,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +436,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Ex001/chamados.xlsx
+++ b/Ex001/chamados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Growth Live\Documents\DESKTOP\Júlio\Códigos\HTML - CSS (Curso em Vídeo)\M2\Projetos\Ex001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B6B2C1-F4D3-4E6E-BC45-332053E8E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEF30FD-0770-4520-A5AE-B9C3863CA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AD017F37-66A1-4802-A209-932A32312F60}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Resolução</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>pdv perguntando qual impressora enviar impressão</t>
+  </si>
+  <si>
+    <t>impressora mudou de porta, não ficou salva no config do pdv, ajustei e sanou a questão</t>
   </si>
 </sst>
 </file>
@@ -414,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C43B6F-787C-4DEB-873B-730514E09242}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +468,9 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
